--- a/biology/Histoire de la zoologie et de la botanique/Jean-Frédéric_Hermann/Jean-Frédéric_Hermann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Frédéric_Hermann/Jean-Frédéric_Hermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fr%C3%A9d%C3%A9ric_Hermann</t>
+          <t>Jean-Frédéric_Hermann</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Frédéric Hermann est un médecin et naturaliste français, né en 1768 et décédé le 19 janvier 1793.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fr%C3%A9d%C3%A9ric_Hermann</t>
+          <t>Jean-Frédéric_Hermann</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Jean Hermann et neveu de son homonyme Jean-Frédéric Hermann, député du Bas-Rhin et maire de Strasbourg, il constitue l'inventaire de la collection de son père et réalise des planches représentant certains échantillons de cette collection. Il fait des travaux d'anatomie comparée sur les parties buccales des insectes et sur les acariens (oribatides ou acariens cuirassés) qui seront publiés sous le titre Mémoire aptérologique par Frédéric-Louis Hammer en 1804[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jean Hermann et neveu de son homonyme Jean-Frédéric Hermann, député du Bas-Rhin et maire de Strasbourg, il constitue l'inventaire de la collection de son père et réalise des planches représentant certains échantillons de cette collection. Il fait des travaux d'anatomie comparée sur les parties buccales des insectes et sur les acariens (oribatides ou acariens cuirassés) qui seront publiés sous le titre Mémoire aptérologique par Frédéric-Louis Hammer en 1804.
 Le jeune Jean-Frédéric, promis à un brillant avenir, meurt prématurément du typhus pendant les guerres révolutionnaires à l'âge de 25 ans.
 </t>
         </is>
